--- a/CreateScripts/Anthony/Excel/Supplier.xlsx
+++ b/CreateScripts/Anthony/Excel/Supplier.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anthony Vu\Desktop\Uni. Stuff\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97D4B574-AE1F-4A37-BEBE-235008390CFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C45A024C-CFEB-4E9E-8F9F-F6F4F82C2527}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3000" yWindow="1296" windowWidth="11052" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>SUPPLIER_ID</t>
   </si>
@@ -34,6 +34,21 @@
   </si>
   <si>
     <t>SUPPLIER_ADDRESS</t>
+  </si>
+  <si>
+    <t>9811 Katy Fwy #100, Houston, TX 77024</t>
+  </si>
+  <si>
+    <t>324 Leaside Avenue Stoney Creek, Ontario L8E 2N7 Canada</t>
+  </si>
+  <si>
+    <t>3715 E Farm Road 94 Springfield, MO 65803</t>
+  </si>
+  <si>
+    <t>223 15th St NE Sioux Center, IA 51250 United States</t>
+  </si>
+  <si>
+    <t>725 E University Dr, McKinney, TX 75069</t>
   </si>
 </sst>
 </file>
@@ -351,17 +366,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -376,8 +391,58 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
       <c r="B2">
-        <v>7894563216</v>
+        <v>7136248000</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>9056626552</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>4178334565</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>32</v>
+      </c>
+      <c r="B5">
+        <v>8002226283</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>59</v>
+      </c>
+      <c r="B6">
+        <v>9725476020</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
